--- a/biology/Botanique/Paul_Gelting/Paul_Gelting.xlsx
+++ b/biology/Botanique/Paul_Gelting/Paul_Gelting.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Emil Elliot Gelting, né le 30 mars 1905 à Aakirkeby et mort le 18 février 1964 à Karlskrona, est un écologiste, botaniste et lichénologue danois.
 Il a été professeur associé à l'Université de Copenhague et particulièrement actif au Groenland.
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gelting a participé à l'expédition de trois ans dans l'est du Groenland (1931-34) dirigée par Lauge Koch et à l'expédition de 1938-1939 vers le nord-est du Groenland dirigée par Eigil Knuth. De 1946 à 1954, il dirige la Station Arctique de Qeqertarsuaq, fondée par Morten Pedersen Porsild[1].
-Gelting est honoré par le nom du genre fongique Geltingia (en)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gelting a participé à l'expédition de trois ans dans l'est du Groenland (1931-34) dirigée par Lauge Koch et à l'expédition de 1938-1939 vers le nord-est du Groenland dirigée par Eigil Knuth. De 1946 à 1954, il dirige la Station Arctique de Qeqertarsuaq, fondée par Morten Pedersen Porsild.
+Gelting est honoré par le nom du genre fongique Geltingia (en).
 </t>
         </is>
       </c>
